--- a/8.10.0/UPDATE/ITEM_5/RTE/attachment/AuditLog_Viewer-2020-12-09b.xlsx
+++ b/8.10.0/UPDATE/ITEM_5/RTE/attachment/AuditLog_Viewer-2020-12-09b.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky_rxwx1ok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sadocument\8.10.0\UPDATE\ITEM_5\RTE\attachment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB07DCD-7B78-45E3-9BAC-3E38A94701C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目前狀況" sheetId="1" r:id="rId1"/>
     <sheet name="期望結果 " sheetId="5" r:id="rId2"/>
     <sheet name="匯出CSV" sheetId="7" r:id="rId3"/>
     <sheet name="匯出CSV (含明細)" sheetId="9" r:id="rId4"/>
-    <sheet name="Audit" sheetId="10" r:id="rId5"/>
-    <sheet name="需求清單" sheetId="6" r:id="rId6"/>
-    <sheet name="SQL" sheetId="2" r:id="rId7"/>
+    <sheet name="需求清單" sheetId="6" r:id="rId5"/>
+    <sheet name="SQL" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">目前狀況!$A$22:$J$42</definedName>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="147">
   <si>
     <t>from  sys_site_log_week a</t>
   </si>
@@ -726,14 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定企業稽核員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企業Audit管理員指定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加【Audit Log 查詢】頁面, 企業管理員及稽核管理員, 可操作
 1. Suite Audit管理員僅檢視Site管理員及企業Audit管理員作業紀錄
 2. 企業Audit管理員僅檢視相同企業所有人員紀錄</t>
@@ -743,7 +733,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
@@ -1351,6 +1341,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,9 +1379,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1433,7 +1423,7 @@
         <xdr:cNvPr id="2" name="矩形: 圓角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F907CEFC-7D89-4A4C-9D68-4B1E078CF1AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F907CEFC-7D89-4A4C-9D68-4B1E078CF1AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1486,7 @@
         <xdr:cNvPr id="3" name="矩形: 圓角 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF0E5AA-2F24-4A9F-8F47-D37C46D11A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECF0E5AA-2F24-4A9F-8F47-D37C46D11A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,72 +1529,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BE8FBD-C800-41DA-8B2E-317BA9D12E95}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="640080" y="441960"/>
-          <a:ext cx="9486900" cy="4823460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1872,7 +1796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1882,28 +1806,28 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1843,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1937,7 +1861,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1879,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>57</v>
       </c>
@@ -1971,8 +1895,8 @@
       <c r="J5" s="5"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2010,7 +1934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>44166.061145833337</v>
       </c>
@@ -2046,7 +1970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>44166.061145833337</v>
       </c>
@@ -2082,7 +2006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>44166.061146874999</v>
       </c>
@@ -2118,7 +2042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>44166.158557673611</v>
       </c>
@@ -2154,7 +2078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>44166.158568946761</v>
       </c>
@@ -2190,7 +2114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>44166.15857013889</v>
       </c>
@@ -2224,7 +2148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>44166.158680439818</v>
       </c>
@@ -2260,7 +2184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>44166.158761805556</v>
       </c>
@@ -2296,7 +2220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>44166.158761805556</v>
       </c>
@@ -2330,7 +2254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>44166.158763078703</v>
       </c>
@@ -2366,7 +2290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2380,7 +2304,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2394,7 +2318,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2408,19 +2332,19 @@
       <c r="L20" s="20"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="22" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="82">
         <v>44166.061145833337</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="12" t="s">
         <v>59</v>
       </c>
@@ -2431,14 +2355,14 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
@@ -2449,14 +2373,14 @@
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="82"/>
+      <c r="C25" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="83"/>
       <c r="E25" s="12" t="s">
         <v>63</v>
       </c>
@@ -2465,21 +2389,21 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="12"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
@@ -2491,69 +2415,69 @@
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="84" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
-    </row>
-    <row r="33" spans="2:9" ht="226.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="89"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="2:9" ht="226.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>38</v>
       </c>
@@ -2565,67 +2489,67 @@
       <c r="H34" s="22"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="84" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="86"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="86"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="86"/>
-    </row>
-    <row r="40" spans="2:9" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="87"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="89"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="87"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="2:9" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2643,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2653,27 +2577,27 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="34.125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2689,7 +2613,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2631,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2649,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>57</v>
       </c>
@@ -2743,8 +2667,8 @@
       <c r="J5" s="5"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>44166.061145833337</v>
       </c>
@@ -2812,7 +2736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>44166.061145833337</v>
       </c>
@@ -2839,7 +2763,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>44166.061145833337</v>
       </c>
@@ -2870,7 +2794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>44166.061146874999</v>
       </c>
@@ -2901,7 +2825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>44166.158557673611</v>
       </c>
@@ -2932,7 +2856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>44166.158568946761</v>
       </c>
@@ -2963,7 +2887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>44166.15857013889</v>
       </c>
@@ -2999,7 +2923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>44166.158680439818</v>
       </c>
@@ -3035,7 +2959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>44166.158761805556</v>
       </c>
@@ -3071,7 +2995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>44166.158761805556</v>
       </c>
@@ -3102,7 +3026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>44166.158763078703</v>
       </c>
@@ -3133,7 +3057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3146,7 +3070,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3159,7 +3083,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3172,19 +3096,19 @@
       <c r="K21" s="20"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="23" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="82">
         <v>44166.061145833337</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="12" t="s">
         <v>59</v>
       </c>
@@ -3195,14 +3119,14 @@
       <c r="H24" s="25"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="12" t="s">
         <v>62</v>
       </c>
@@ -3213,14 +3137,14 @@
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="82"/>
+      <c r="C26" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="83"/>
       <c r="E26" s="12" t="s">
         <v>63</v>
       </c>
@@ -3229,14 +3153,14 @@
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="26" t="s">
         <v>64</v>
       </c>
@@ -3247,7 +3171,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
         <v>39</v>
       </c>
@@ -3259,19 +3183,19 @@
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="90" t="s">
+    <row r="29" spans="1:12" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="92"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
@@ -3281,7 +3205,7 @@
       <c r="H30" s="48"/>
       <c r="I30" s="49"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="59" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3217,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="43" t="s">
         <v>70</v>
       </c>
@@ -3311,7 +3235,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="45"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="46">
         <v>1</v>
       </c>
@@ -3329,7 +3253,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="46">
         <v>2</v>
       </c>
@@ -3347,7 +3271,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="40"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="46"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -3357,7 +3281,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="40"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="47"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -3367,7 +3291,7 @@
       <c r="H36" s="41"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="63"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -3377,19 +3301,19 @@
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
     </row>
-    <row r="38" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="82">
         <v>44166.061145833337</v>
       </c>
-      <c r="D39" s="82"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="12" t="s">
         <v>59</v>
       </c>
@@ -3400,14 +3324,14 @@
       <c r="H39" s="25"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="82"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="12" t="s">
         <v>62</v>
       </c>
@@ -3418,14 +3342,14 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="82"/>
+      <c r="C41" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="83"/>
       <c r="E41" s="12" t="s">
         <v>63</v>
       </c>
@@ -3434,14 +3358,14 @@
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="82"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="26" t="s">
         <v>64</v>
       </c>
@@ -3452,7 +3376,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="59" t="s">
         <v>39</v>
       </c>
@@ -3464,19 +3388,19 @@
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90" t="s">
+    <row r="44" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="92"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="53"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
@@ -3486,7 +3410,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="49"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="59" t="s">
         <v>38</v>
       </c>
@@ -3498,7 +3422,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="43" t="s">
         <v>70</v>
       </c>
@@ -3516,7 +3440,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="46">
         <v>1</v>
       </c>
@@ -3534,7 +3458,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="40"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="46">
         <v>2</v>
       </c>
@@ -3552,7 +3476,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="40"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="46">
         <v>3</v>
       </c>
@@ -3570,7 +3494,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="40"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="47"/>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -3580,19 +3504,19 @@
       <c r="H51" s="41"/>
       <c r="I51" s="42"/>
     </row>
-    <row r="53" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="81">
+      <c r="C54" s="82">
         <v>44166.061145833337</v>
       </c>
-      <c r="D54" s="82"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="12" t="s">
         <v>59</v>
       </c>
@@ -3603,14 +3527,14 @@
       <c r="H54" s="25"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="12" t="s">
         <v>62</v>
       </c>
@@ -3621,14 +3545,14 @@
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="82"/>
+      <c r="C56" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="83"/>
       <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
@@ -3637,14 +3561,14 @@
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="82"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="26" t="s">
         <v>64</v>
       </c>
@@ -3655,7 +3579,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="59" t="s">
         <v>39</v>
       </c>
@@ -3667,7 +3591,7 @@
       <c r="H58" s="22"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="43" t="s">
         <v>70</v>
       </c>
@@ -3685,7 +3609,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="46">
         <v>1</v>
       </c>
@@ -3703,7 +3627,7 @@
       <c r="H60" s="39"/>
       <c r="I60" s="40"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="46">
         <v>2</v>
       </c>
@@ -3721,7 +3645,7 @@
       <c r="H61" s="39"/>
       <c r="I61" s="40"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="46">
         <v>3</v>
       </c>
@@ -3739,7 +3663,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="40"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="46">
         <v>4</v>
       </c>
@@ -3757,7 +3681,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="40"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="50"/>
       <c r="C64" s="51"/>
       <c r="D64" s="51"/>
@@ -3767,7 +3691,7 @@
       <c r="H64" s="51"/>
       <c r="I64" s="52"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="59" t="s">
         <v>38</v>
       </c>
@@ -3779,7 +3703,7 @@
       <c r="H65" s="22"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43" t="s">
         <v>70</v>
       </c>
@@ -3797,7 +3721,7 @@
       <c r="H66" s="44"/>
       <c r="I66" s="45"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="46">
         <v>1</v>
       </c>
@@ -3813,7 +3737,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="46">
         <v>2</v>
       </c>
@@ -3829,7 +3753,7 @@
       <c r="H68" s="37"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="46">
         <v>3</v>
       </c>
@@ -3845,7 +3769,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="53"/>
       <c r="C70" s="54"/>
       <c r="D70" s="54"/>
@@ -3855,7 +3779,7 @@
       <c r="H70" s="54"/>
       <c r="I70" s="55"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="56"/>
       <c r="C71" s="57"/>
       <c r="D71" s="57"/>
@@ -3884,9 +3808,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F24" r:id="rId1" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F54" r:id="rId2" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F39" r:id="rId3" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F24" r:id="rId1" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut"/>
+    <hyperlink ref="F54" r:id="rId2" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut"/>
+    <hyperlink ref="F39" r:id="rId3" display="http://sit-1.arcare-robot.com/ArcareEng/Runtime_SignOut"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId4"/>
@@ -3895,28 +3819,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0001694-3F1B-4A50-A7C3-08DAC2EA8810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>141</v>
       </c>
@@ -3951,7 +3875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3983,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4009,7 +3933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4038,7 +3962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4067,7 +3991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4096,7 +4020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4125,7 +4049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4157,7 +4081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4189,7 +4113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4221,7 +4145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4250,7 +4174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4279,7 +4203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
     </row>
   </sheetData>
@@ -4290,33 +4214,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C49AAE8-6AEF-4EDC-9281-CA5B632762A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="70" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.44140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" style="70" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="70" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="70" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="70"/>
-    <col min="14" max="14" width="9.44140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="70" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="70"/>
-    <col min="16" max="16" width="87.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="87.375" style="70" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>141</v>
       </c>
@@ -4369,7 +4293,7 @@
       <c r="R1" s="68"/>
       <c r="S1" s="69"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4401,7 +4325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4427,7 +4351,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4456,7 +4380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4485,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4514,7 +4438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4543,7 +4467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4584,7 +4508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4634,7 +4558,7 @@
       <c r="R9" s="74"/>
       <c r="S9" s="75"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4684,7 +4608,7 @@
       <c r="R10" s="74"/>
       <c r="S10" s="75"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4725,7 +4649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4772,7 +4696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4819,7 +4743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4866,7 +4790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4913,7 +4837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4962,7 +4886,7 @@
       <c r="Q16" s="74"/>
       <c r="R16" s="74"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -5011,7 +4935,7 @@
       <c r="Q17" s="74"/>
       <c r="R17" s="74"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -5060,7 +4984,7 @@
       <c r="Q18" s="74"/>
       <c r="R18" s="74"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -5107,7 +5031,7 @@
       <c r="Q19" s="74"/>
       <c r="R19" s="74"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5154,7 +5078,7 @@
       <c r="Q20" s="74"/>
       <c r="R20" s="74"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -5201,7 +5125,7 @@
       <c r="Q21" s="74"/>
       <c r="R21" s="74"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -5230,7 +5154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5267,44 +5191,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD4DAB4-A933-408D-A71A-27DA525DF3BD}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA51A15-0C59-4334-8511-9C6D210E0C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="77.88671875" style="79" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="78" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="78"/>
+    <col min="1" max="1" width="3.5" style="78" customWidth="1"/>
+    <col min="2" max="2" width="77.875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="78" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>107</v>
       </c>
@@ -5315,7 +5217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -5326,7 +5228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="78">
         <f>ROW()-1</f>
         <v>2</v>
@@ -5335,7 +5237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="78">
         <f>ROW()-1</f>
         <v>3</v>
@@ -5344,7 +5246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="78">
         <f>ROW()-1</f>
         <v>4</v>
@@ -5352,23 +5254,21 @@
       <c r="B5" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <f t="shared" ref="A6:A9" si="0">ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5377,7 +5277,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5386,7 +5286,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="78">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5401,91 +5301,90 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" location="'期望結果 '!A1" display="AuditLog查詢" xr:uid="{01FB1523-8620-4B27-AB58-81B2C8C33442}"/>
-    <hyperlink ref="C9" location="'期望結果 '!A23" display="AuditLog內容" xr:uid="{A9C7549F-586A-4D96-B620-EB635972B36F}"/>
-    <hyperlink ref="C5" location="Audit!A1" display="企業Audit管理員指定" xr:uid="{DCFB7CE1-FDA1-4398-8AF0-4C2A78ADABD2}"/>
+    <hyperlink ref="C6" location="'期望結果 '!A1" display="AuditLog查詢"/>
+    <hyperlink ref="C9" location="'期望結果 '!A23" display="AuditLog內容"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>4</v>
       </c>
